--- a/src/test/resources/1.xlsx
+++ b/src/test/resources/1.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangguanquan3\eec\src\test\resources\1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="525" windowWidth="18015" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Object测试" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Object测试!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -409,15 +417,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -436,7 +444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -459,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -482,13 +490,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,7 +515,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,7 +527,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,17 +536,902 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Object测试!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Object测试!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>LOL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>极品飞车</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Object测试!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EEA-4A16-928C-A959290E035F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="620045903"/>
+        <c:axId val="620040495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="620045903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620040495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620040495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620045903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3309937</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1776412</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,7 +1473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,9 +1505,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,6 +1540,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -812,22 +1716,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -847,7 +1754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -867,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="5">
         <v>8</v>
       </c>
@@ -886,8 +1793,10 @@
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -906,8 +1815,10 @@
       <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -926,8 +1837,10 @@
       <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -946,8 +1859,10 @@
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -967,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -987,7 +1902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -1007,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1027,11 +1942,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1047,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1067,7 +1982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1087,7 +2002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -1107,7 +2022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -1127,7 +2042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -2728,8 +3643,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <mergeCells count="1">
+    <mergeCell ref="G3:H6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E95">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <picture r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/1.xlsx
+++ b/src/test/resources/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangguanquan3\eec\src\test\resources\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangguanquan3\eec\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -540,10 +540,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1721,7 +1721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="15"/>
@@ -1734,7 +1734,7 @@
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>8</v>
       </c>
@@ -1793,10 +1793,8 @@
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -1815,10 +1813,8 @@
       <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1837,10 +1833,8 @@
       <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -1859,10 +1853,8 @@
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1882,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1902,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -1922,7 +1914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1942,7 +1934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1962,7 +1954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1982,7 +1974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2002,7 +1994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -2022,7 +2014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:6">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -2042,7 +2034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -3644,9 +3636,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <mergeCells count="1">
-    <mergeCell ref="G3:H6"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E95">
@@ -3654,7 +3643,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <picture r:id="rId2"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/1.xlsx
+++ b/src/test/resources/1.xlsx
@@ -1,22 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangguanquan3\eec\src\test\resources\1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="525" windowWidth="18015" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Object测试" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Object测试!$A$1:$F$1</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -417,15 +409,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -444,7 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -467,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -490,22 +482,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,7 +498,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +510,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,902 +519,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Object测试!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Object测试!$B$4:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>LOL</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LOL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>极品飞车</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Object测试!$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6EEA-4A16-928C-A959290E035F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="620045903"/>
-        <c:axId val="620040495"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="620045903"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="620040495"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="620040495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="620045903"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3309937</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1776412</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1473,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1505,10 +603,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1540,7 +637,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1716,25 +812,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1774,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>8</v>
       </c>
@@ -1793,10 +886,8 @@
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -1815,10 +906,8 @@
       <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1837,10 +926,8 @@
       <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -1859,10 +946,8 @@
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1882,7 +967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1902,7 +987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -1922,7 +1007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1942,11 +1027,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1962,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1982,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -2002,7 +1087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -2022,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:6">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -2042,7 +1127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -3643,18 +2728,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
-  <mergeCells count="1">
-    <mergeCell ref="G3:H6"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E95">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <picture r:id="rId2"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/1.xlsx
+++ b/src/test/resources/1.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangguanquan3\eec\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="525" windowWidth="18015" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Object测试" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Object测试!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -409,15 +417,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -436,7 +444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -488,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,7 +506,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,7 +518,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,17 +527,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,9 +622,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,6 +657,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -812,19 +833,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1">
@@ -1207,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -2727,7 +2751,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B98:E100"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>

--- a/src/test/resources/1.xlsx
+++ b/src/test/resources/1.xlsx
@@ -496,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,9 +525,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2751,29 +2748,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <mergeCells count="1">
-    <mergeCell ref="B98:E100"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>

--- a/src/test/resources/1.xlsx
+++ b/src/test/resources/1.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangguanquan3\eec\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguanquan3/eec/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE7054-5B1E-F742-90F3-00478370F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="525" windowWidth="18015" windowHeight="10350"/>
+    <workbookView xWindow="17800" yWindow="9820" windowWidth="18020" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object测试" sheetId="1" r:id="rId1"/>
+    <sheet name="header rows test" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Object测试!$A$1:$F$1</definedName>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
   <si>
     <t>极品飞车</t>
   </si>
@@ -412,26 +414,31 @@
   </si>
   <si>
     <t>Ae9CNO6eTu</t>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -444,7 +451,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -496,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,7 +528,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +540,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +548,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,9 +582,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -585,9 +622,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,7 +659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -830,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -838,17 +875,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:6" ht="18.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -2749,9 +2786,85 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C0689A-9935-8144-86F5-C3003FE75A5F}">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="12">
+        <v>43425</v>
+      </c>
+      <c r="E4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12">
+        <v>43425</v>
+      </c>
+      <c r="E5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>